--- a/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>-2,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>117,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 12,24</t>
+          <t>2,68; 19,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,31</t>
+          <t>-6,17; 5,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,63</t>
+          <t>0,54; 11,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,6</t>
+          <t>-5,51; 6,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 92,43</t>
+          <t>12,36; 176,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 57,35</t>
+          <t>-53,21; 97,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 231,32</t>
+          <t>-3,37; 440,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 137,15</t>
+          <t>-48,87; 176,66</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>164,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>123,47%</t>
+          <t>106,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 10,98</t>
+          <t>-0,18; 18,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 10,98</t>
+          <t>-0,16; 12,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 6,88</t>
+          <t>-4,12; 7,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 10,65</t>
+          <t>-1,67; 10,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 89,24</t>
+          <t>-1,58; 234,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 278,62</t>
+          <t>-20,95; 1256,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,35; 164,15</t>
+          <t>-58,07; 338,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 457,46</t>
+          <t>-51,56; 807,74</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>371,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>157,97%</t>
+          <t>193,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>316,26%</t>
+          <t>731,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>170,04%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 18,64</t>
+          <t>0,88; 32,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 18,99</t>
+          <t>-2,34; 28,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 20,08</t>
+          <t>5,29; 34,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,85</t>
+          <t>0,0; 11,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 566,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,86; —</t>
+          <t>-58,61; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>111,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
+          <t>49,8%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,23</t>
+          <t>5,78; 17,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,13</t>
+          <t>-0,62; 7,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,49</t>
+          <t>1,6; 9,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,61</t>
+          <t>-1,5; 6,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 79,65</t>
+          <t>37,67; 175,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 110,95</t>
+          <t>-10,68; 172,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 160,5</t>
+          <t>13,44; 300,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 199,8</t>
+          <t>-20,38; 192,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>80,9%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>117,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.89532996340484</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1891360635223813</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.373290108158371</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.059435341828216</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8089613689766164</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.02348539595163712</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.8973171941952574</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1372976752387633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 19,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 5,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 11,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 6,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>12,36; 176,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-53,21; 97,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 440,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-48,87; 176,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.67652083378159</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.051620440156698</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.362282934796432</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.725504589837218</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1235531312973051</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5364382078342632</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2013507028798766</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5009500586341425</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.64617049056564</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.864124308127496</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.63045591401548</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.717027152404111</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.765725328240416</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.9732320263647619</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.587410573117408</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.835169374484961</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>73,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>164,44%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>106,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 18,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 12,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 7,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 10,52</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 234,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-20,95; 1256,77</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-58,07; 338,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-51,56; 807,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.330963160856745</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.23478189372451</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.942586851539062</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.102983329881433</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7371120532815482</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.7550010149572</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6372933128734057</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.139393953424127</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>14,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>371,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>193,84%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>731,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.182560318426705</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1574531987710273</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.608678371158119</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.384965142809031</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.01576918693745762</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1801369452432054</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4631097737905163</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4771289432403803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 32,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 28,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,29; 34,77</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-58,61; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.11392763904968</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.14272703306884</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.168557316014336</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.33910868597371</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.34702413892923</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>14.07444796541464</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.644951792952404</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>8.181747140525896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,44 +827,30 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>89,4%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>52,71%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>111,67%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,8%</t>
+      <c r="C10" s="5" t="n">
+        <v>14.95769698956088</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.00314888858402</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>20.02289903887884</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.81678390786012</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>3.713031144293773</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.742991829258486</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>9.035934045007563</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -963,52 +858,154 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 17,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 7,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 9,44</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 6,36</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>37,67; 175,51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 172,36</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>13,44; 300,44</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 192,27</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.8835854638261423</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.921115554100706</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.942042022190435</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.6603029313770065</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>32.05526189928663</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>29.59370988553575</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>37.89643606232217</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.78935623629621</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>11.3358382650957</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.203854483039242</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.903417559652695</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.573034950226276</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.8939854815259698</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5569297963546606</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.178045183400672</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4998565769290012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.778688386862547</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2826397092525935</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.785536470895275</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.49195258919679</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3767156653455012</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.08160134751985364</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1821407146321321</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.232796025970899</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.05150331530485</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.20835824802914</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.27572146104524</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.21328597021949</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.755106058613181</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.782200182772596</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.281721735532679</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.882087604222251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1013,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
